--- a/go-eCharger/go-eCharger Interface.xlsx
+++ b/go-eCharger/go-eCharger Interface.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d024440/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d024440/Library/Mobile Documents/com~apple~CloudDocs/private Dokumente/GitHub/GO-eCharger/go-eCharger/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59200568-55C2-D242-94AF-D0250A435B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C6B8FB2-F957-6243-B808-C31D85E7D9C2}"/>
+    <workbookView xWindow="34860" yWindow="2040" windowWidth="30700" windowHeight="22480" xr2:uid="{7C6B8FB2-F957-6243-B808-C31D85E7D9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="313">
   <si>
     <t>IPS Bezeichnung</t>
   </si>
@@ -44,9 +45,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>cbl</t>
   </si>
   <si>
-    <t>pha</t>
-  </si>
-  <si>
     <t>tmp</t>
   </si>
   <si>
@@ -98,9 +93,6 @@
     <t>GOECHARGER_Status</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t xml:space="preserve">ampere (current setting)                 </t>
   </si>
   <si>
@@ -269,9 +261,6 @@
     <t>fwv</t>
   </si>
   <si>
-    <t>sse</t>
-  </si>
-  <si>
     <t>wss</t>
   </si>
   <si>
@@ -326,9 +315,6 @@
     <t>afi</t>
   </si>
   <si>
-    <t>ama</t>
-  </si>
-  <si>
     <t>al1</t>
   </si>
   <si>
@@ -1316,13 +1302,134 @@
       </rPr>
       <t xml:space="preserve"> $cardID)</t>
     </r>
+  </si>
+  <si>
+    <t>sse / serial</t>
+  </si>
+  <si>
+    <t>car / car_state</t>
+  </si>
+  <si>
+    <t>ama / max_allowed_current</t>
+  </si>
+  <si>
+    <t>amp / set_current</t>
+  </si>
+  <si>
+    <t>pha / phase_count</t>
+  </si>
+  <si>
+    <t>next_planned_charge:seconds_left</t>
+  </si>
+  <si>
+    <t>next_planned_charge:estimated_duration</t>
+  </si>
+  <si>
+    <t>Wann started ein geplanter Ladevorgang (in wievielen Sekunden)</t>
+  </si>
+  <si>
+    <t>Wie lange dauert dann ein geplanter Ladevorgang (in Sekunden)</t>
+  </si>
+  <si>
+    <t>rbc</t>
+  </si>
+  <si>
+    <t>Reboot Counter (Anzahl der Ladevorgänge)</t>
+  </si>
+  <si>
+    <t>rbt</t>
+  </si>
+  <si>
+    <t>Millisekunden seit letztem Bootvorgang (max. 49 Tage)</t>
+  </si>
+  <si>
+    <t>Minimale ​Anzahl ​von Stunden in der mit "Strompreis 
+-automatisch" geladen werden muss
+Beispiel: 2 ("Auto ist nach 2 Stunden voll genug")</t>
+  </si>
+  <si>
+    <t>Stunde (​Uhrzeit​) in der mit "Strompreis - automatisch" die Ladung
+mindestens ​aho ​Stunden gedauert haben muss.
+Beispiel: 7 ("Fertig bis 7:00, also davor mindestens 2 
+Stundengeladen")</t>
+  </si>
+  <si>
+    <t>azo</t>
+  </si>
+  <si>
+    <t>Awattar Preiszone
+0: Österreich
+1: Deutschland</t>
+  </si>
+  <si>
+    <t>Neue Parameter seit Version 1.0, die man aufnehmen könnte</t>
+  </si>
+  <si>
+    <t>upd</t>
+  </si>
+  <si>
+    <t>Update available (0 = false, 1 = true)</t>
+  </si>
+  <si>
+    <t>loe</t>
+  </si>
+  <si>
+    <t>Lastmanagement aktiv (0 = false, 1 = true)</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>Lastmanagement Gruppe Total Ampere</t>
+  </si>
+  <si>
+    <t>lom</t>
+  </si>
+  <si>
+    <t>Lastmanagement minimale Amperezahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lop </t>
+  </si>
+  <si>
+    <t>Lastmanagement Priorität</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Lastmanagement Gruppen ID</t>
+  </si>
+  <si>
+    <t>lof</t>
+  </si>
+  <si>
+    <t>Lastmanagement Fallback Amperezahl</t>
+  </si>
+  <si>
+    <t>loa</t>
+  </si>
+  <si>
+    <t>Lastmanagement: derzeit erlaubter Ladestrom (zentral gesteuert)</t>
+  </si>
+  <si>
+    <t>lch</t>
+  </si>
+  <si>
+    <t>Lastmanagement: Sekunden, seit dem letzten Stromfluss bei nach angestecktem Auto (0 = es wird geladen)</t>
+  </si>
+  <si>
+    <t>GGF Interessant als Info</t>
+  </si>
+  <si>
+    <t>GGF Interessant als SET/GET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1362,6 +1469,12 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1383,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,6 +1520,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1721,15 +1838,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADCA54B-8441-0D4A-9760-92D56A0B0A2E}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1741,7 +1858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1758,1469 +1875,1695 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="7" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="I21" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="I60" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" t="s">
-        <v>180</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" t="s">
-        <v>194</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B86" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>20</v>
+    </row>
+    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/go-eCharger/go-eCharger Interface.xlsx
+++ b/go-eCharger/go-eCharger Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d024440/Library/Mobile Documents/com~apple~CloudDocs/private Dokumente/GitHub/GO-eCharger/go-eCharger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59200568-55C2-D242-94AF-D0250A435B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25212834-2209-0043-A463-977580C8DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34860" yWindow="2040" windowWidth="30700" windowHeight="22480" xr2:uid="{7C6B8FB2-F957-6243-B808-C31D85E7D9C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="318">
   <si>
     <t>IPS Bezeichnung</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Ident</t>
   </si>
   <si>
     <t>IPS Profil</t>
@@ -1423,13 +1420,32 @@
   </si>
   <si>
     <t>GGF Interessant als SET/GET</t>
+  </si>
+  <si>
+    <t>lse</t>
+  </si>
+  <si>
+    <t>led_save_energy / LED automatisch nach 10 Sekunden abschalten 
+(0 = false, 1 = true)</t>
+  </si>
+  <si>
+    <t>ledEnergySave</t>
+  </si>
+  <si>
+    <t>Realisiert in Modul Version</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1475,6 +1491,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1496,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,6 +1545,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADCA54B-8441-0D4A-9760-92D56A0B0A2E}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,15 +1877,16 @@
     <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1867,1706 +1896,1876 @@
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J8" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D16" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="G58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B96" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B109" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B111" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="2" t="s">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" t="s">
-        <v>171</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" t="s">
-        <v>191</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B97" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B99" t="s">
-        <v>285</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B100" t="s">
-        <v>287</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C102" s="2" t="s">
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B109" t="s">
-        <v>298</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B111" t="s">
-        <v>302</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B113" t="s">
-        <v>306</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="B117" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>89</v>
+      <c r="D117" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/go-eCharger/go-eCharger Interface.xlsx
+++ b/go-eCharger/go-eCharger Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d024440/Library/Mobile Documents/com~apple~CloudDocs/private Dokumente/GitHub/GO-eCharger/go-eCharger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25212834-2209-0043-A463-977580C8DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA11B7-58E9-0546-BC4B-F61B6DC2EB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34860" yWindow="2040" windowWidth="30700" windowHeight="22480" xr2:uid="{7C6B8FB2-F957-6243-B808-C31D85E7D9C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="320">
   <si>
     <t>IPS Bezeichnung</t>
   </si>
@@ -1439,6 +1439,34 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <r>
+      <t>getLEDEnergySave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>setLEDEnergySave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>(bool $energySaveActive)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1868,8 +1896,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADCA54B-8441-0D4A-9760-92D56A0B0A2E}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1913,7 @@
     <col min="7" max="7" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1926,9 +1956,6 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2190,9 +2217,6 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2236,9 +2260,6 @@
       <c r="C13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="E13" s="2" t="s">
         <v>213</v>
       </c>
@@ -2312,14 +2333,6 @@
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="14" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -2485,9 +2498,6 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G23" s="2" t="s">
         <v>75</v>
       </c>
@@ -2502,9 +2512,6 @@
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2519,9 +2526,6 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2536,9 +2540,6 @@
       <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G26" s="2" t="s">
         <v>155</v>
       </c>
@@ -2553,9 +2554,6 @@
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G27" s="2" t="s">
         <v>155</v>
       </c>
@@ -2570,9 +2568,6 @@
       <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G28" s="2" t="s">
         <v>155</v>
       </c>
@@ -2587,9 +2582,6 @@
       <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="G29" s="2" t="s">
         <v>155</v>
       </c>
@@ -2604,9 +2596,6 @@
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="J30" s="9" t="s">
         <v>252</v>
       </c>
@@ -2618,9 +2607,6 @@
       <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="J31" s="9" t="s">
         <v>252</v>
       </c>
@@ -2632,9 +2618,6 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="J32" s="9" t="s">
         <v>252</v>
       </c>
@@ -2646,9 +2629,6 @@
       <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="J33" s="9" t="s">
         <v>252</v>
       </c>
@@ -2660,9 +2640,6 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="J34" s="9" t="s">
         <v>252</v>
       </c>
@@ -3702,7 +3679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>304</v>
       </c>
@@ -3716,7 +3693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>306</v>
       </c>
@@ -3730,7 +3707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>308</v>
       </c>
@@ -3744,7 +3721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>312</v>
       </c>
@@ -3762,6 +3739,18 @@
       </c>
       <c r="F117" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/go-eCharger/go-eCharger Interface.xlsx
+++ b/go-eCharger/go-eCharger Interface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d024440/Library/Mobile Documents/com~apple~CloudDocs/private Dokumente/GitHub/GO-eCharger/go-eCharger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADA11B7-58E9-0546-BC4B-F61B6DC2EB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB096F-F555-DA48-9ACD-DBC19CE2BBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34860" yWindow="2040" windowWidth="30700" windowHeight="22480" xr2:uid="{7C6B8FB2-F957-6243-B808-C31D85E7D9C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="320">
   <si>
     <t>IPS Bezeichnung</t>
   </si>
@@ -1896,10 +1896,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADCA54B-8441-0D4A-9760-92D56A0B0A2E}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3591,6 +3591,9 @@
       <c r="B104" s="12" t="s">
         <v>290</v>
       </c>
+      <c r="D104" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="F104" s="2" t="s">
         <v>88</v>
       </c>
